--- a/excel/err_95_espera.xlsx
+++ b/excel/err_95_espera.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0188485841405993</v>
+        <v>53.11432875463753</v>
       </c>
     </row>
   </sheetData>
